--- a/pd/MYH7_Luis_Lopes.xlsx
+++ b/pd/MYH7_Luis_Lopes.xlsx
@@ -5,15 +5,15 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nicholas/Documents/GitHub/MYH7/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nicholas/Documents/GitHub/MYH7nick/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1595878F-9217-5E41-A1F1-46A412F9AD9F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3268EC14-A35D-B947-8A4C-53F790DF57E3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14580" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Majid MYH7" sheetId="1" r:id="rId1"/>
+    <sheet name="Majid_MYH7" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="125725" concurrentCalc="0"/>
@@ -1481,8 +1481,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BE227"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
-      <selection activeCell="R1" sqref="R1:R1048576"/>
+    <sheetView tabSelected="1" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -37636,7 +37636,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C87B4FF-CDF9-3248-9248-4041916DCBE0}">
   <dimension ref="A1:BE2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
+    <sheetView zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
